--- a/quarkus/src/test/resources/KYC.xlsx
+++ b/quarkus/src/test/resources/KYC.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -613,6 +613,16 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>COUNTRY!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>

--- a/quarkus/src/test/resources/KYC.xlsx
+++ b/quarkus/src/test/resources/KYC.xlsx
@@ -695,7 +695,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/quarkus/src/test/resources/KYC.xlsx
+++ b/quarkus/src/test/resources/KYC.xlsx
@@ -26,7 +26,7 @@
     <author>Greg Autric</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,12 +35,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">@input
-</t>
+          <t>@input(PEP)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,12 +48,12 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">@input
+          <t xml:space="preserve">@input(COUNTRY)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">@input
+          <t xml:space="preserve">@input(AMOUNT)
 </t>
         </r>
       </text>
@@ -77,7 +76,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">@output
+          <t xml:space="preserve">@output(SCORE)
 </t>
         </r>
       </text>
@@ -540,7 +539,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
